--- a/medicine/Mort/Tombeau_de_saint_Remi/Tombeau_de_saint_Remi.xlsx
+++ b/medicine/Mort/Tombeau_de_saint_Remi/Tombeau_de_saint_Remi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tombeau de saint Remi, situé dans la basilique Saint-Remi de Reims, est un chef-d'œuvre de l'art gothique flamboyant qui abrite les reliques de saint Remi, évêque de Reims qui a baptisé le roi Clovis en 496 ou 498. L’actuel tombeau est le cinquième connu[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tombeau de saint Remi, situé dans la basilique Saint-Remi de Reims, est un chef-d'œuvre de l'art gothique flamboyant qui abrite les reliques de saint Remi, évêque de Reims qui a baptisé le roi Clovis en 496 ou 498. L’actuel tombeau est le cinquième connu.
 </t>
         </is>
       </c>
@@ -511,60 +523,274 @@
           <t>Historique des tombeaux de Saint-Remi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les livres d'histoire utilisent souvent et de manière générique le terme "mausolée" pour le "tombeau de saint Remi" même s'il ne remplit pas les caractéristiques d'un mausolée par sa taille.
-Premier mausolée (633)
-Le corps de saint Remi fut inhumé après sa mort le 13 janvier 533 dans un caveau au milieu de l’église Saint-Christophe, petite chapelle élevée sur un cimetière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique des tombeaux de Saint-Remi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premier mausolée (633)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps de saint Remi fut inhumé après sa mort le 13 janvier 533 dans un caveau au milieu de l’église Saint-Christophe, petite chapelle élevée sur un cimetière.
 Sonnace, archevêque de Reims fait construite en 633 une église plus grande et place, le 01 octobre 633, les reliques de saint Remi dans un premier mausolée.
-Second mausolée (852)
-L’archevêque Hincmar démoli la chapelle et édifie l’église Saint-Remi en 852, construit un tombeau encore plus riche et dépose les reliques de saint Remi dans une châsse d’argent.
-Troisième mausolée (1537)
-En 1537, le cardinal Robert de Lenoncourt, abbé du monastère, fait construire un tombeau plus haut que celui de l’archevêque Hincmar. C’est celui qui est parvenu jusqu’à la Révolution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique des tombeaux de Saint-Remi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Second mausolée (852)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’archevêque Hincmar démoli la chapelle et édifie l’église Saint-Remi en 852, construit un tombeau encore plus riche et dépose les reliques de saint Remi dans une châsse d’argent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique des tombeaux de Saint-Remi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troisième mausolée (1537)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1537, le cardinal Robert de Lenoncourt, abbé du monastère, fait construire un tombeau plus haut que celui de l’archevêque Hincmar. C’est celui qui est parvenu jusqu’à la Révolution.
 Il est représenté par un dessin par Beaussonnet de 1633.
 Il présentait deux registres, le registre supérieur servant de support à des reliefs représentant la vie de saint Remi. 
 			Le tombeau primitif en 1633.
-Quatrième mausolée (1803)
-De sa destruction par les Révolutionnaires en 1793, subsistent des statues dites rondes-bosses réemployées dans une rotonde, formée de huit colonnes, entre 1803 et 1847, grâce à Ludimart de Vauxelles, également donateur de la quatrième châsse à la même époque. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique des tombeaux de Saint-Remi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quatrième mausolée (1803)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De sa destruction par les Révolutionnaires en 1793, subsistent des statues dites rondes-bosses réemployées dans une rotonde, formée de huit colonnes, entre 1803 et 1847, grâce à Ludimart de Vauxelles, également donateur de la quatrième châsse à la même époque. 
 Au sommet s'élevait un baldaquin en bois, surmonté d'un pot-à-feu momentanément remplacé par un aigle impérial.
 À la Révolution, la châsse en argent massif a été fondue.
-Cinquième tombeau en 1847
-Finalement un cinquième tombeau est réalisé. Il est inauguré et béni par Thomas Gousset le 3 octobre 1847. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique des tombeaux de Saint-Remi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinquième tombeau en 1847</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Finalement un cinquième tombeau est réalisé. Il est inauguré et béni par Thomas Gousset le 3 octobre 1847. 
 L'actuel tombeau est une œuvre de Narcisse Brunette, en collaboration de Michel Wendling sculpteur, en 1847.
-Les statues précédemment sauvées sont employées dans les niches[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tombeau_de_saint_Remi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Les statues précédemment sauvées sont employées dans les niches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Description du cinquième tombeau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tombeau mesure environ 4 mètres de haut et 3 mètres de large.
-Face avant du tombeau de saint Remi
-La face avant du tombeau de saint Remi est divisée en trois niveaux :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du cinquième tombeau</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Face avant du tombeau de saint Remi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face avant du tombeau de saint Remi est divisée en trois niveaux :
 Le niveau inférieur comporte une plaque en marbre noir avec le texte suivant en latin (suivi de sa traduction dans ce texte) :
 « BEATI REMIGII SEPULCHRUM / Tombeau du bienheureux Remi
 A SONNATIO EPISC: ANNO DCXXXIII / élevé primitivement en ce lieu par l’évêque Sonnace en 633, 
@@ -577,14 +803,49 @@
 THOMA GOUSSET METROP: SEDEM TENENTE / Sous Thomas Gousset occupant le siège métropolitain
 FUNDITUS REAEDIFICAUIT / Reconstruit entièrement
 HIC B: REMIGII QUICQUID HUMANITUS SUPEREST PIE COLIMUS / Ici nous vénérons pieusement les restes mortels de saint Remi
-UT PRECIBUS EJUS FRETI FIDE SPE CHARITATE REFOVEAMUR / Demandant qu’avec le secours de ses prières, se raniment en nous la foi, l’espérance et la charité »[2].
+UT PRECIBUS EJUS FRETI FIDE SPE CHARITATE REFOVEAMUR / Demandant qu’avec le secours de ses prières, se raniment en nous la foi, l’espérance et la charité ».
 Le niveau médian comporte une grille en fer forgé ajourée qui ferme l'accès à la châsse contenant les ossements de Saint Remi.
 Le niveau supérieur est constitué d'un fronton avec une frise et une plaque en marbre blanc, surmontée des armoiries de Thomas Gousset, archevêque de Reims. Sur la plaque de marbre est inscrit en lettre d'or "Sancto Remigio" qui veut dire "Saint Remi".
 			Inscriptions.
 			Grille en fer forgé.
 			Armoiries de Thomas Gousset.
-Faces latérale du tombeau de saint Remi
-Sur les faces latérales du tombeau, sont disposées, entre les colonnes de marbre, douze statues représentant les pairs de France ecclésiastiques et laïcs. Elles sont attribuées à Pierre Jacques (1520-1596), sculpteur français du XVIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description du cinquième tombeau</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Faces latérale du tombeau de saint Remi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les faces latérales du tombeau, sont disposées, entre les colonnes de marbre, douze statues représentant les pairs de France ecclésiastiques et laïcs. Elles sont attribuées à Pierre Jacques (1520-1596), sculpteur français du XVIe siècle.
 Ces statues sont issues de l’ancien tombeau construit en 1537 par Robert de Lenoncourt.
 Du côté gauche (nord):  
 			Comte de Toulouse.
@@ -600,8 +861,43 @@
 			Évêque de Châlons.
 			Évêque de Langres.
 			Évêque de Beauvais.
-Face arrière du tombeau de saint Remi
-La face arrière du tombeau de saint Remi est divisée en deux niveaux :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tombeau_de_saint_Remi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Description du cinquième tombeau</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Face arrière du tombeau de saint Remi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face arrière du tombeau de saint Remi est divisée en deux niveaux :
 Le niveau inférieur est composé d'un soubassement en marbre surmonté d'une frise de bas-reliefs en forme de coquillage.
 Le niveau supérieur est occupé par une arcade cintrée abritant un groupe sculpté représentant le baptême de Clovis par saint Remi.
 Clovis est agenouillé devant l’évêque Remi assisté d’un bedo. Une colombe, sculptée dans une conque, au-dessus de la tête de saint Remi symbolise la colombe de la sainte ampoule.
